--- a/data/trans_dic/P37A$medicoenfermedad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03292282503473647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04570119411328422</v>
+        <v>0.04570119411328423</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02886141777460977</v>
@@ -685,7 +685,7 @@
         <v>0.04402582808346957</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06432396125814317</v>
+        <v>0.06432396125814316</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03723472114915031</v>
@@ -697,7 +697,7 @@
         <v>0.03846624835320277</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05529664755568291</v>
+        <v>0.0552966475556829</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03021969683200433</v>
+        <v>0.0318295951474702</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02207737663386017</v>
+        <v>0.02118090679902388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0212327253870615</v>
+        <v>0.02100806829764467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03321050015049261</v>
+        <v>0.03230212562488386</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01847077274631385</v>
+        <v>0.01774233154942141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02326702854769377</v>
+        <v>0.02432474711234725</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02828758267144294</v>
+        <v>0.03001632183229221</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05164016645506467</v>
+        <v>0.05247101242106842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02849170314295566</v>
+        <v>0.02812061459725754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02575059595277511</v>
+        <v>0.02592114847615774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02859237222376932</v>
+        <v>0.02876284381541151</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04623764525609449</v>
+        <v>0.04582247050236891</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06302106225449895</v>
+        <v>0.06250645768945259</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05283627268255919</v>
+        <v>0.0512405062323123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05123260067021185</v>
+        <v>0.04893362940666252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0626613039727108</v>
+        <v>0.0632497775147312</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04233014542500142</v>
+        <v>0.04300234777712962</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05129887977424253</v>
+        <v>0.05321148432700388</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06050894868796303</v>
+        <v>0.0610440984507136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07981498404442287</v>
+        <v>0.07878234378925136</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04910322227240448</v>
+        <v>0.04853907884733756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04609568610751139</v>
+        <v>0.04539553478572331</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05057321007622719</v>
+        <v>0.04972882159834432</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06609392248477323</v>
+        <v>0.06633590992064325</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03539354381208219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05555819539434542</v>
+        <v>0.05555819539434541</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02928558025775359</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0196249024375574</v>
+        <v>0.01959878188961956</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02386747438190239</v>
+        <v>0.02376529335367121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02466531514627222</v>
+        <v>0.02476223054556898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04301411901625789</v>
+        <v>0.04366092853147215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01946064224536363</v>
+        <v>0.02073760285089437</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02923373506884391</v>
+        <v>0.02979904588274571</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0164894076059305</v>
+        <v>0.0163026019620456</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05243552029714747</v>
+        <v>0.05215764745803139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02189549294072186</v>
+        <v>0.02238882459451121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02974731897387698</v>
+        <v>0.02989604991558984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02335657868640595</v>
+        <v>0.02319847867706493</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05042579754138018</v>
+        <v>0.05142200072604371</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0411211752557599</v>
+        <v>0.04454687005657233</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04818310182881936</v>
+        <v>0.04798868883363105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04908038289412094</v>
+        <v>0.04898949351885386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07151995653799896</v>
+        <v>0.07118431530310318</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04178582603017716</v>
+        <v>0.04282118482896239</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05330004377779152</v>
+        <v>0.05338964668843941</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0374221156608221</v>
+        <v>0.03691319242315343</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08238046305621702</v>
+        <v>0.0799377094713323</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0379027131405948</v>
+        <v>0.0379681044228456</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04693437436861284</v>
+        <v>0.04717962196193033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03990959992108832</v>
+        <v>0.03920183564618785</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06963363709099106</v>
+        <v>0.07132986631091758</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02295306396396832</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04701587530120593</v>
+        <v>0.04701587530120595</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03186930382014128</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02553829193731969</v>
+        <v>0.0252407366110176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02307524033003434</v>
+        <v>0.02316313635647396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03182237855302539</v>
+        <v>0.03240841771142672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03101817849845378</v>
+        <v>0.03262831556590678</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01715584992050316</v>
+        <v>0.01612833629314616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02504408398842687</v>
+        <v>0.02373911827266192</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01435857191305314</v>
+        <v>0.01392802061307092</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03580400812384535</v>
+        <v>0.03561548035391808</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02364633606820238</v>
+        <v>0.02374019054048008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0267033130203592</v>
+        <v>0.02671958771065846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02560492253589189</v>
+        <v>0.02482078237656021</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0376744398408259</v>
+        <v>0.03801930209621215</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0545417507765551</v>
+        <v>0.05491336303534718</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05176047443090254</v>
+        <v>0.05388822856016555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06307536686245986</v>
+        <v>0.06405782063787382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05988267455393876</v>
+        <v>0.06287657475242721</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04178267008925492</v>
+        <v>0.03968131005145193</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05402357182604375</v>
+        <v>0.05285391064163534</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0369771340853236</v>
+        <v>0.03635238893320638</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06043813438763829</v>
+        <v>0.05990591705980047</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04218216522554655</v>
+        <v>0.04319977287093294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05005605546671447</v>
+        <v>0.046536860772825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04525998691022605</v>
+        <v>0.04461422885828503</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05622411287087036</v>
+        <v>0.0563868473517284</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0205169432719738</v>
+        <v>0.01976186813671355</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02867390405030807</v>
+        <v>0.02877871156569003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01797810578572311</v>
+        <v>0.01767788115241775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05804555524241464</v>
+        <v>0.05678139407380152</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01764529603530242</v>
+        <v>0.01858467375328766</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03116910166005633</v>
+        <v>0.03141630378807575</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02174963756787121</v>
+        <v>0.02042828048413192</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06144866798640083</v>
+        <v>0.061522929522504</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02173659718974828</v>
+        <v>0.02209485334673267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03347467500050711</v>
+        <v>0.03368839999069854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02181321473597993</v>
+        <v>0.02200325438113872</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06307617461547686</v>
+        <v>0.06330411150688775</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04100463371396849</v>
+        <v>0.04081210834381788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05568155886871799</v>
+        <v>0.05601775621544566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03908912949748987</v>
+        <v>0.03702867259997755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09132801214167742</v>
+        <v>0.08929247605215813</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0382040696634029</v>
+        <v>0.03860991316393991</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05773312679994528</v>
+        <v>0.05776581387080636</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04651721401240173</v>
+        <v>0.0461151933387143</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08669054869679725</v>
+        <v>0.08692732883808124</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0358571911252954</v>
+        <v>0.03588596026773642</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0531832658614227</v>
+        <v>0.05293492122392049</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03806332369647904</v>
+        <v>0.03778642948239406</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08389806257101616</v>
+        <v>0.08302543824685112</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03061496322051569</v>
+        <v>0.03052801165694937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02863127859266876</v>
+        <v>0.02860936615282494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04921247863461222</v>
+        <v>0.04834947732354042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03339624018432391</v>
+        <v>0.03371316454203181</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02453899013770878</v>
+        <v>0.0247551100565492</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05676079775955297</v>
+        <v>0.05695966577077938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03374588138088692</v>
+        <v>0.03380531369621251</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02843145918932089</v>
+        <v>0.02786326748044689</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05491706575460673</v>
+        <v>0.05442755227088842</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04409251885017718</v>
+        <v>0.04423705375002228</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.041467434612122</v>
+        <v>0.04113076547287464</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06379730693654856</v>
+        <v>0.0628036006518419</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04697741476441972</v>
+        <v>0.04695436037164726</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03586803397292448</v>
+        <v>0.0363571456808409</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06955029770133439</v>
+        <v>0.07045131145845128</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04330354237896432</v>
+        <v>0.04331974193934728</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03672477391032956</v>
+        <v>0.03682832526660547</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06478809320547968</v>
+        <v>0.06409718517103329</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20973</v>
+        <v>22090</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15531</v>
+        <v>14900</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14328</v>
+        <v>14176</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22939</v>
+        <v>22311</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12714</v>
+        <v>12213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16218</v>
+        <v>16956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19033</v>
+        <v>20196</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37913</v>
+        <v>38523</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>39386</v>
+        <v>38873</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36064</v>
+        <v>36303</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38532</v>
+        <v>38762</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>65884</v>
+        <v>65292</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43737</v>
+        <v>43380</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37169</v>
+        <v>36046</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34572</v>
+        <v>33020</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43281</v>
+        <v>43687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29138</v>
+        <v>29601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35758</v>
+        <v>37091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40713</v>
+        <v>41073</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58599</v>
+        <v>57840</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>67878</v>
+        <v>67099</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64558</v>
+        <v>63577</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>68154</v>
+        <v>67016</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94177</v>
+        <v>94521</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18875</v>
+        <v>18850</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24296</v>
+        <v>24192</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25219</v>
+        <v>25318</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45118</v>
+        <v>45797</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18846</v>
+        <v>20082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30175</v>
+        <v>30758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17197</v>
+        <v>17002</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56183</v>
+        <v>55886</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42263</v>
+        <v>43215</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>60986</v>
+        <v>61291</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>48239</v>
+        <v>47913</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>106922</v>
+        <v>109035</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39550</v>
+        <v>42845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49048</v>
+        <v>48850</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>50181</v>
+        <v>50088</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>75018</v>
+        <v>74666</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40465</v>
+        <v>41468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>55015</v>
+        <v>55108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39028</v>
+        <v>38497</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>88269</v>
+        <v>85651</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73160</v>
+        <v>73286</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>96222</v>
+        <v>96724</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82427</v>
+        <v>80965</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>147651</v>
+        <v>151247</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17328</v>
+        <v>17126</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17482</v>
+        <v>17549</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24171</v>
+        <v>24616</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24910</v>
+        <v>26203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11732</v>
+        <v>11029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19464</v>
+        <v>18449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11272</v>
+        <v>10934</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29082</v>
+        <v>28929</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32215</v>
+        <v>32342</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>40984</v>
+        <v>41009</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39548</v>
+        <v>38337</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>60857</v>
+        <v>61414</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37007</v>
+        <v>37259</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39215</v>
+        <v>40827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47909</v>
+        <v>48655</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48090</v>
+        <v>50494</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28573</v>
+        <v>27136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41986</v>
+        <v>41077</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29027</v>
+        <v>28537</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49091</v>
+        <v>48659</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57467</v>
+        <v>58853</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>76826</v>
+        <v>71425</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69907</v>
+        <v>68909</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90821</v>
+        <v>91083</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19332</v>
+        <v>18620</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27175</v>
+        <v>27275</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16856</v>
+        <v>16574</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>57469</v>
+        <v>56217</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18327</v>
+        <v>19302</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32787</v>
+        <v>33047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22702</v>
+        <v>21323</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>68764</v>
+        <v>68847</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>43057</v>
+        <v>43766</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>66937</v>
+        <v>67365</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43220</v>
+        <v>43596</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>133034</v>
+        <v>133515</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38635</v>
+        <v>38454</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52772</v>
+        <v>53090</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36649</v>
+        <v>34717</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90420</v>
+        <v>88405</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39679</v>
+        <v>40101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60730</v>
+        <v>60764</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48554</v>
+        <v>48134</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97010</v>
+        <v>97275</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>71027</v>
+        <v>71084</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>106347</v>
+        <v>105851</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>75417</v>
+        <v>74868</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176950</v>
+        <v>175109</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>104911</v>
+        <v>104613</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>97185</v>
+        <v>97110</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>173856</v>
+        <v>170807</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>118834</v>
+        <v>119962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>86979</v>
+        <v>87746</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>212112</v>
+        <v>212856</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>235718</v>
+        <v>236133</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>197283</v>
+        <v>193340</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>399231</v>
+        <v>395673</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>151095</v>
+        <v>151591</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>140755</v>
+        <v>139612</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>225381</v>
+        <v>221870</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>167160</v>
+        <v>167078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>127136</v>
+        <v>128869</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>259906</v>
+        <v>263273</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>302479</v>
+        <v>302592</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>254829</v>
+        <v>255548</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>470991</v>
+        <v>465968</v>
       </c>
     </row>
     <row r="24">
